--- a/data.xlsx
+++ b/data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9" documentId="11_1A710A1A9A43000F62355476585DCE3A874489DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F659CB15-9F3D-4276-88A7-00D4325952F0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2280" windowWidth="19428" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2356,6 +2356,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2646,7 +2650,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I2" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
